--- a/ICHaus/doc/Pos_STK.xlsx
+++ b/ICHaus/doc/Pos_STK.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Soeren\Documents\GitHub\ICHausInterpolation\ICHaus\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD9E6D07-CE4C-4C9B-BF7F-E0C4961E65B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5F5F9DE-CBCC-4895-882D-C9089A1C1A7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17085" yWindow="2520" windowWidth="19785" windowHeight="14565" xr2:uid="{0DE30CAE-FAAC-43F8-9925-2B97532B8EB6}"/>
+    <workbookView xWindow="750" yWindow="615" windowWidth="19785" windowHeight="14565" xr2:uid="{0DE30CAE-FAAC-43F8-9925-2B97532B8EB6}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle4" sheetId="4" r:id="rId1"/>
@@ -690,8 +690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73704BCD-05C6-4CB0-92D7-0BC4E81ED7EF}">
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1228,7 +1228,7 @@
         <v>-149</v>
       </c>
       <c r="F23">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>5</v>
@@ -1251,7 +1251,7 @@
         <v>-157</v>
       </c>
       <c r="F24">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>5</v>
@@ -1274,7 +1274,7 @@
         <v>-157</v>
       </c>
       <c r="F25">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>5</v>
@@ -1634,7 +1634,7 @@
         <v>-100</v>
       </c>
       <c r="F40">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>5</v>
@@ -1658,7 +1658,7 @@
         <v>-108</v>
       </c>
       <c r="F41">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>5</v>
@@ -1682,7 +1682,7 @@
         <v>-108</v>
       </c>
       <c r="F42">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>5</v>
